--- a/学习网站.xlsx
+++ b/学习网站.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>学习网站</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,17 @@
   </si>
   <si>
     <t>Excel论坛财会与金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wiki.mbalib.com/wiki/SWOT</t>
+  </si>
+  <si>
+    <t>MBAlib智库百科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,8 +155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,6 +516,17 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
